--- a/pearson_tables/t2m_netherlands-1-2.xlsx
+++ b/pearson_tables/t2m_netherlands-1-2.xlsx
@@ -457,13 +457,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-0.8356099833315105</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0.5792748693918085</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0.5866768785750358</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -473,13 +473,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.8402040551042712</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>-0.5724476948114464</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0.6845924552590328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -489,13 +489,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.7180706798042114</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>-0.6435047782151272</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0.6933659931070545</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -505,13 +505,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.722604579789721</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0.6813476437942573</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0.7272818782548921</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -521,13 +521,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.6973388638878705</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>-0.6124330936480823</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>-0.6421557156154927</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -537,13 +537,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-0.7152748043163263</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0.7328118149760584</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>-0.5860706143567298</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -553,13 +553,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-0.8632506336023859</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0.5468886100810396</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>-0.5361351413514756</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -569,13 +569,13 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-0.7444342848844767</v>
+        <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>0.5022625953844485</v>
+        <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>0.5869051666086132</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
